--- a/Output_testing/R1_201907/Country/HKD/MN/MICRONESIA,PALAU_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MICRONESIA,PALAU_201907_HKD_MN.xlsx
@@ -621,8 +621,10 @@
       <c r="F9" s="8" t="n">
         <v>1.525043</v>
       </c>
-      <c r="G9" s="8" t="n">
-        <v>0.02307</v>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H9" s="9" t="n">
         <v>-91.68808150605282</v>
@@ -646,17 +648,25 @@
       <c r="C10" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="D10" s="8" t="n">
-        <v>0.454675</v>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>0.026944</v>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F10" s="8" t="n">
-        <v>0.019319</v>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.010452</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>-94.07400890746138</v>
@@ -666,7 +676,7 @@
       </c>
       <c r="J10" s="9" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>∞</t>
         </is>
       </c>
     </row>

--- a/Output_testing/R1_201907/Country/HKD/MN/MICRONESIA,PALAU_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MICRONESIA,PALAU_201907_HKD_MN.xlsx
@@ -822,136 +822,461 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>3.771247</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>12.91574431254725</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>11.359502</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>42.63856771973282</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>2.445336</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>13.1905817622785</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>3.084826</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>28.90638133350175</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>101.646732909884</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>0.603945</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>2.068387246669696</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>0.868627</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>3.26044320980694</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1.446447</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>7.802395015777976</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1.119851</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>10.49357080195229</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>54.57435325491322</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1.605096</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>5.497123241488119</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1.30788</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>4.90920552232696</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1.209845</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.526121315101006</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>0.787841</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.382469019700739</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-6.917826588830489</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.410148</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4.829466489691575</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1.138825</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>4.274647505095269</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.935831</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>10.44222024435634</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>0.676015</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.334602787050934</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-9.804295675238627</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.5929482942402224</v>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.7295718712447983</v>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.109215955983494</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>0.634494</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.945529996770923</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>595.8620765291014</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>0.74642</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.556334779920679</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>0.644523</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.419255490462993</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>0.592529</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.196207891684872</v>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.726069366859255</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>27.02344406359509</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>0.92925</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.182489877336206</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0.671332</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.519884669629326</v>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.274051298648758</v>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.428415235618568</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>221.1835244131538</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.1198883407544054</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.6679646976218723</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.1569005043558</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.983812825261985</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>10.21022684009054</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1.161055</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>3.976374263686402</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0.901664</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.384449558127211</v>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.647128947865253</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.814806374418068</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>7.353176</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>25.18311346383808</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>0.513996</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.929314617284436</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1.369049</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>7.384896296895651</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.671615668311066</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-75.59754596606189</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>11.410359</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>39.07812968982736</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>8.862705999999999</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>33.26669513866738</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>8.207046</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>44.27028076705235</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>2.701319</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>25.31272659055442</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-29.10454204869189</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -983,136 +1308,591 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>0.596013</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>33.58667427046376</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0.852349</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>48.15359679288251</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1.427875</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>81.92636768192344</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.119851</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>78.84936429803111</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>58.6411428215248</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1.161055</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>65.42806297025953</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>0.901664</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>50.93965582016007</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>17.52006453700665</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>21.15063570196889</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.9852627592767076</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.2853005796968808</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.5535677810699098</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.6214468072605326</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>046</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MEAL AND FLOUR OF WHEAT AND FLOUR OF MESLIN</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>SUGARS, MOLASSES, AND HONEY</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1144,136 +1924,479 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>3.771247</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>13.75148755023103</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>11.359502</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>45.67310574450929</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>2.445336</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>14.55936379618882</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>3.084826</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>33.34391535420964</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>101.646732909884</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1.605096</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>5.852827370078286</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1.30788</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.25858805616028</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1.209845</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>7.20333463049661</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>0.787841</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>8.51578131686386</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-6.917826588830489</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1.410148</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>5.141968337259051</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1.138825</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>4.578869271689093</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1.935831</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>11.52580576940756</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>0.676015</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.307052954745593</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-9.804295675238627</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.6313163909766979</v>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.7814946656419252</v>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.224318905924543</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>0.634494</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.858252046875219</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>595.8620765291014</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>0.728936</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.657994644454528</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>0.639473</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.571126617149113</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>0.582881</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.470433727261339</v>
+      </c>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.298073153434655</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>31.06280591308361</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>0.92925</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.388420277444618</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>0.671332</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.699221975195119</v>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.510028802740523</v>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.954724947984341</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>221.1835244131538</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.1276459943311556</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.7155029800394551</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.380721311694046</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.441869846331546</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>10.21022684009054</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>7.353176</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>26.81264531828798</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.513996</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.066621728686239</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.369049</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>8.151224390353107</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.081746057224413</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-75.59754596606189</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.05367629335240215</v>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.307019018763459</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.948157501544878</v>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>046</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MEAL AND FLOUR OF WHEAT AND FLOUR OF MESLIN</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.2733211936633018</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.282938593689419</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>360.0858275606675</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>11.418291</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>41.63569411693666</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>8.854634000000001</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>35.60179266757709</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>7.96019</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>47.3944284535067</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>2.217362</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>23.96748822709644</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-41.17593376913161</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1305,136 +2428,589 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>0.9161306940391559</v>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>1.754743070519614</v>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>0.5654266797723081</v>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>4.088703</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>59.63488373415874</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>0.559884</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>98.24525692948039</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1.38674</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>90.93120652991425</v>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>8.503366790313454</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>2.463359</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>35.92878415490036</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.149320172742239</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.9937973173875368</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.7358274456198722</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.2494083115976178</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.2362815583556379</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.1555666111988416</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
